--- a/uploads/Canon_AER POWER POCKET_eco_report.xlsx
+++ b/uploads/Canon_AER POWER POCKET_eco_report.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-19.00</t>
+          <t>-20.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-13.00</t>
+          <t>-19.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.00%</t>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-19.00</t>
+          <t>-21.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.00%</t>
+          <t>16.00%</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-17.00</t>
+          <t>-18.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-21.00</t>
+          <t>-23.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.00%</t>
+          <t>8.00%</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-89.00</t>
+          <t>-101.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.80%</t>
+          <t>11.80%</t>
         </is>
       </c>
     </row>
